--- a/TestCaseTemplate.xlsx
+++ b/TestCaseTemplate.xlsx
@@ -16,24 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
   <si>
-    <t>TEST CASE</t>
+    <t>Test Case ID</t>
   </si>
   <si>
-    <t>ACTUAL RESULT</t>
+    <t>Test Case</t>
   </si>
   <si>
-    <t>EXPECTED RESULT</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>TEST CASE ID</t>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -92,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -105,6 +99,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,19 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -421,90 +418,82 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
@@ -514,6 +503,62 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
